--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6217593477167</v>
+        <v>12.635217</v>
       </c>
       <c r="H2">
-        <v>12.6217593477167</v>
+        <v>37.905651</v>
       </c>
       <c r="I2">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="J2">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N2">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O2">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P2">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q2">
-        <v>432.893687176712</v>
+        <v>448.407568747026</v>
       </c>
       <c r="R2">
-        <v>432.893687176712</v>
+        <v>4035.668118723234</v>
       </c>
       <c r="S2">
-        <v>0.4911664090942213</v>
+        <v>0.4698229223900676</v>
       </c>
       <c r="T2">
-        <v>0.4911664090942213</v>
+        <v>0.4698229223900676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6217593477167</v>
+        <v>12.635217</v>
       </c>
       <c r="H3">
-        <v>12.6217593477167</v>
+        <v>37.905651</v>
       </c>
       <c r="I3">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="J3">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N3">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O3">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P3">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q3">
-        <v>32.92220445914455</v>
+        <v>33.019124024376</v>
       </c>
       <c r="R3">
-        <v>32.92220445914455</v>
+        <v>297.172116219384</v>
       </c>
       <c r="S3">
-        <v>0.03735393105204349</v>
+        <v>0.03459607380678342</v>
       </c>
       <c r="T3">
-        <v>0.03735393105204349</v>
+        <v>0.03459607380678342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6217593477167</v>
+        <v>12.635217</v>
       </c>
       <c r="H4">
-        <v>12.6217593477167</v>
+        <v>37.905651</v>
       </c>
       <c r="I4">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="J4">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N4">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O4">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P4">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q4">
-        <v>4.276821696886157</v>
+        <v>7.531625419794</v>
       </c>
       <c r="R4">
-        <v>4.276821696886157</v>
+        <v>67.784628778146</v>
       </c>
       <c r="S4">
-        <v>0.004852533583697946</v>
+        <v>0.007891325909066526</v>
       </c>
       <c r="T4">
-        <v>0.004852533583697946</v>
+        <v>0.007891325909066526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6217593477167</v>
+        <v>12.635217</v>
       </c>
       <c r="H5">
-        <v>12.6217593477167</v>
+        <v>37.905651</v>
       </c>
       <c r="I5">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="J5">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N5">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O5">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P5">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q5">
-        <v>4.707627104448851</v>
+        <v>6.099979522392</v>
       </c>
       <c r="R5">
-        <v>4.707627104448851</v>
+        <v>54.899815701528</v>
       </c>
       <c r="S5">
-        <v>0.005341330605504745</v>
+        <v>0.006391306493193054</v>
       </c>
       <c r="T5">
-        <v>0.005341330605504745</v>
+        <v>0.006391306493193053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.6217593477167</v>
+        <v>12.635217</v>
       </c>
       <c r="H6">
-        <v>12.6217593477167</v>
+        <v>37.905651</v>
       </c>
       <c r="I6">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="J6">
-        <v>0.6197667826838686</v>
+        <v>0.6124739533382845</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N6">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O6">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P6">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q6">
-        <v>71.43637847939195</v>
+        <v>89.498017547001</v>
       </c>
       <c r="R6">
-        <v>71.43637847939195</v>
+        <v>805.482157923009</v>
       </c>
       <c r="S6">
-        <v>0.08105257834840102</v>
+        <v>0.09377232473917388</v>
       </c>
       <c r="T6">
-        <v>0.08105257834840102</v>
+        <v>0.09377232473917387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.91073949994074</v>
+        <v>2.964132666666667</v>
       </c>
       <c r="H7">
-        <v>2.91073949994074</v>
+        <v>8.892398</v>
       </c>
       <c r="I7">
-        <v>0.142926164682063</v>
+        <v>0.143682063598313</v>
       </c>
       <c r="J7">
-        <v>0.142926164682063</v>
+        <v>0.1436820635983129</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N7">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O7">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P7">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q7">
-        <v>99.83083339076573</v>
+        <v>105.1932485610369</v>
       </c>
       <c r="R7">
-        <v>99.83083339076573</v>
+        <v>946.7392370493321</v>
       </c>
       <c r="S7">
-        <v>0.1132692700446099</v>
+        <v>0.1102171392707539</v>
       </c>
       <c r="T7">
-        <v>0.1132692700446099</v>
+        <v>0.1102171392707539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.91073949994074</v>
+        <v>2.964132666666667</v>
       </c>
       <c r="H8">
-        <v>2.91073949994074</v>
+        <v>8.892398</v>
       </c>
       <c r="I8">
-        <v>0.142926164682063</v>
+        <v>0.143682063598313</v>
       </c>
       <c r="J8">
-        <v>0.142926164682063</v>
+        <v>0.1436820635983129</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N8">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O8">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P8">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q8">
-        <v>7.592282367647315</v>
+        <v>7.746053284670222</v>
       </c>
       <c r="R8">
-        <v>7.592282367647315</v>
+        <v>69.714479562032</v>
       </c>
       <c r="S8">
-        <v>0.008614295328877029</v>
+        <v>0.008115994565752037</v>
       </c>
       <c r="T8">
-        <v>0.008614295328877029</v>
+        <v>0.008115994565752035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.91073949994074</v>
+        <v>2.964132666666667</v>
       </c>
       <c r="H9">
-        <v>2.91073949994074</v>
+        <v>8.892398</v>
       </c>
       <c r="I9">
-        <v>0.142926164682063</v>
+        <v>0.143682063598313</v>
       </c>
       <c r="J9">
-        <v>0.142926164682063</v>
+        <v>0.1436820635983129</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N9">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O9">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P9">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q9">
-        <v>0.9862899065320964</v>
+        <v>1.766866128212</v>
       </c>
       <c r="R9">
-        <v>0.9862899065320964</v>
+        <v>15.901795153908</v>
       </c>
       <c r="S9">
-        <v>0.001119056447500225</v>
+        <v>0.001851249322459371</v>
       </c>
       <c r="T9">
-        <v>0.001119056447500225</v>
+        <v>0.001851249322459371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.91073949994074</v>
+        <v>2.964132666666667</v>
       </c>
       <c r="H10">
-        <v>2.91073949994074</v>
+        <v>8.892398</v>
       </c>
       <c r="I10">
-        <v>0.142926164682063</v>
+        <v>0.143682063598313</v>
       </c>
       <c r="J10">
-        <v>0.142926164682063</v>
+        <v>0.1436820635983129</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N10">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O10">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P10">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q10">
-        <v>1.085639155874871</v>
+        <v>1.431012112282667</v>
       </c>
       <c r="R10">
-        <v>1.085639155874871</v>
+        <v>12.879109010544</v>
       </c>
       <c r="S10">
-        <v>0.001231779306463926</v>
+        <v>0.001499355362013356</v>
       </c>
       <c r="T10">
-        <v>0.001231779306463926</v>
+        <v>0.001499355362013356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.91073949994074</v>
+        <v>2.964132666666667</v>
       </c>
       <c r="H11">
-        <v>2.91073949994074</v>
+        <v>8.892398</v>
       </c>
       <c r="I11">
-        <v>0.142926164682063</v>
+        <v>0.143682063598313</v>
       </c>
       <c r="J11">
-        <v>0.142926164682063</v>
+        <v>0.1436820635983129</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N11">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O11">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P11">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q11">
-        <v>16.4741445977813</v>
+        <v>20.99560279914245</v>
       </c>
       <c r="R11">
-        <v>16.4741445977813</v>
+        <v>188.960425192282</v>
       </c>
       <c r="S11">
-        <v>0.01869176355461185</v>
+        <v>0.02199832507733426</v>
       </c>
       <c r="T11">
-        <v>0.01869176355461185</v>
+        <v>0.02199832507733425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.04005736808985</v>
+        <v>2.088661</v>
       </c>
       <c r="H12">
-        <v>2.04005736808985</v>
+        <v>6.265983</v>
       </c>
       <c r="I12">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="J12">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N12">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O12">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P12">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q12">
-        <v>69.96868913399094</v>
+        <v>74.12388730219133</v>
       </c>
       <c r="R12">
-        <v>69.96868913399094</v>
+        <v>667.1149857197221</v>
       </c>
       <c r="S12">
-        <v>0.07938732027973301</v>
+        <v>0.07766394632574661</v>
       </c>
       <c r="T12">
-        <v>0.07938732027973301</v>
+        <v>0.07766394632574661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.04005736808985</v>
+        <v>2.088661</v>
       </c>
       <c r="H13">
-        <v>2.04005736808985</v>
+        <v>6.265983</v>
       </c>
       <c r="I13">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="J13">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N13">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O13">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P13">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q13">
-        <v>5.321222179124203</v>
+        <v>5.458217029741334</v>
       </c>
       <c r="R13">
-        <v>5.321222179124203</v>
+        <v>49.123953267672</v>
       </c>
       <c r="S13">
-        <v>0.006037522992674318</v>
+        <v>0.005718894270937339</v>
       </c>
       <c r="T13">
-        <v>0.006037522992674318</v>
+        <v>0.005718894270937337</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.04005736808985</v>
+        <v>2.088661</v>
       </c>
       <c r="H14">
-        <v>2.04005736808985</v>
+        <v>6.265983</v>
       </c>
       <c r="I14">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="J14">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N14">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O14">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P14">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q14">
-        <v>0.6912635056948302</v>
+        <v>1.245013226202</v>
       </c>
       <c r="R14">
-        <v>0.6912635056948302</v>
+        <v>11.205119035818</v>
       </c>
       <c r="S14">
-        <v>0.0007843159276457975</v>
+        <v>0.001304473414628083</v>
       </c>
       <c r="T14">
-        <v>0.0007843159276457975</v>
+        <v>0.001304473414628083</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.04005736808985</v>
+        <v>2.088661</v>
       </c>
       <c r="H15">
-        <v>2.04005736808985</v>
+        <v>6.265983</v>
       </c>
       <c r="I15">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="J15">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N15">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O15">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P15">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q15">
-        <v>0.760894665796945</v>
+        <v>1.008355402936</v>
       </c>
       <c r="R15">
-        <v>0.760894665796945</v>
+        <v>9.075198626424001</v>
       </c>
       <c r="S15">
-        <v>0.000863320283406845</v>
+        <v>0.001056513126080787</v>
       </c>
       <c r="T15">
-        <v>0.000863320283406845</v>
+        <v>0.001056513126080786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.04005736808985</v>
+        <v>2.088661</v>
       </c>
       <c r="H16">
-        <v>2.04005736808985</v>
+        <v>6.265983</v>
       </c>
       <c r="I16">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="J16">
-        <v>0.1001730231641829</v>
+        <v>0.1012448349603726</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N16">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O16">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P16">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q16">
-        <v>11.54627546380072</v>
+        <v>14.79444467219967</v>
       </c>
       <c r="R16">
-        <v>11.54627546380072</v>
+        <v>133.150002049797</v>
       </c>
       <c r="S16">
-        <v>0.01310054368072291</v>
+        <v>0.01550100782297983</v>
       </c>
       <c r="T16">
-        <v>0.01310054368072291</v>
+        <v>0.01550100782297982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30964085876744</v>
+        <v>2.431061</v>
       </c>
       <c r="H17">
-        <v>2.30964085876744</v>
+        <v>7.293183</v>
       </c>
       <c r="I17">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="J17">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N17">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O17">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P17">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q17">
-        <v>79.21470532447569</v>
+        <v>86.27522206272468</v>
       </c>
       <c r="R17">
-        <v>79.21470532447569</v>
+        <v>776.4769985645221</v>
       </c>
       <c r="S17">
-        <v>0.08987796198976931</v>
+        <v>0.09039561279624404</v>
       </c>
       <c r="T17">
-        <v>0.08987796198976931</v>
+        <v>0.09039561279624403</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30964085876744</v>
+        <v>2.431061</v>
       </c>
       <c r="H18">
-        <v>2.30964085876744</v>
+        <v>7.293183</v>
       </c>
       <c r="I18">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="J18">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N18">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O18">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P18">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q18">
-        <v>6.024395370308763</v>
+        <v>6.352997710274667</v>
       </c>
       <c r="R18">
-        <v>6.024395370308763</v>
+        <v>57.176979392472</v>
       </c>
       <c r="S18">
-        <v>0.006835351793408154</v>
+        <v>0.006656408495777534</v>
       </c>
       <c r="T18">
-        <v>0.006835351793408154</v>
+        <v>0.006656408495777532</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30964085876744</v>
+        <v>2.431061</v>
       </c>
       <c r="H19">
-        <v>2.30964085876744</v>
+        <v>7.293183</v>
       </c>
       <c r="I19">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="J19">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N19">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O19">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P19">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q19">
-        <v>0.7826105588503632</v>
+        <v>1.449111703002</v>
       </c>
       <c r="R19">
-        <v>0.7826105588503632</v>
+        <v>13.042005327018</v>
       </c>
       <c r="S19">
-        <v>0.0008879593981070035</v>
+        <v>0.001518319365296313</v>
       </c>
       <c r="T19">
-        <v>0.0008879593981070035</v>
+        <v>0.001518319365296313</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30964085876744</v>
+        <v>2.431061</v>
       </c>
       <c r="H20">
-        <v>2.30964085876744</v>
+        <v>7.293183</v>
       </c>
       <c r="I20">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="J20">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N20">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O20">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P20">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q20">
-        <v>0.8614431323508838</v>
+        <v>1.173657905336</v>
       </c>
       <c r="R20">
-        <v>0.8614431323508838</v>
+        <v>10.562921148024</v>
       </c>
       <c r="S20">
-        <v>0.0009774037887111591</v>
+        <v>0.001229710257817369</v>
       </c>
       <c r="T20">
-        <v>0.0009774037887111591</v>
+        <v>0.001229710257817369</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30964085876744</v>
+        <v>2.431061</v>
       </c>
       <c r="H21">
-        <v>2.30964085876744</v>
+        <v>7.293183</v>
       </c>
       <c r="I21">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="J21">
-        <v>0.1134103927003214</v>
+        <v>0.1178421820121113</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N21">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O21">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P21">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q21">
-        <v>13.07205865624637</v>
+        <v>17.21973908606634</v>
       </c>
       <c r="R21">
-        <v>13.07205865624637</v>
+        <v>154.977651774597</v>
       </c>
       <c r="S21">
-        <v>0.01483171573032577</v>
+        <v>0.01804213109697608</v>
       </c>
       <c r="T21">
-        <v>0.01483171573032577</v>
+        <v>0.01804213109697608</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.483139856030033</v>
+        <v>0.5107313333333333</v>
       </c>
       <c r="H22">
-        <v>0.483139856030033</v>
+        <v>1.532194</v>
       </c>
       <c r="I22">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="J22">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N22">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O22">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P22">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q22">
-        <v>16.5704469509397</v>
+        <v>18.12519685755511</v>
       </c>
       <c r="R22">
-        <v>16.5704469509397</v>
+        <v>163.126771717996</v>
       </c>
       <c r="S22">
-        <v>0.01880102936834228</v>
+        <v>0.01899083233654336</v>
       </c>
       <c r="T22">
-        <v>0.01880102936834228</v>
+        <v>0.01899083233654336</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.483139856030033</v>
+        <v>0.5107313333333333</v>
       </c>
       <c r="H23">
-        <v>0.483139856030033</v>
+        <v>1.532194</v>
       </c>
       <c r="I23">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="J23">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N23">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O23">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P23">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q23">
-        <v>1.260206971499566</v>
+        <v>1.334674445121778</v>
       </c>
       <c r="R23">
-        <v>1.260206971499566</v>
+        <v>12.012070006096</v>
       </c>
       <c r="S23">
-        <v>0.001429846059765419</v>
+        <v>0.001398416735022193</v>
       </c>
       <c r="T23">
-        <v>0.001429846059765419</v>
+        <v>0.001398416735022193</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.483139856030033</v>
+        <v>0.5107313333333333</v>
       </c>
       <c r="H24">
-        <v>0.483139856030033</v>
+        <v>1.532194</v>
       </c>
       <c r="I24">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="J24">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N24">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O24">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P24">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q24">
-        <v>0.1637095877028821</v>
+        <v>0.304437754636</v>
       </c>
       <c r="R24">
-        <v>0.1637095877028821</v>
+        <v>2.739939791724</v>
       </c>
       <c r="S24">
-        <v>0.0001857468766771283</v>
+        <v>0.0003189772999787362</v>
       </c>
       <c r="T24">
-        <v>0.0001857468766771283</v>
+        <v>0.0003189772999787362</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.483139856030033</v>
+        <v>0.5107313333333333</v>
       </c>
       <c r="H25">
-        <v>0.483139856030033</v>
+        <v>1.532194</v>
       </c>
       <c r="I25">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="J25">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N25">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O25">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P25">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q25">
-        <v>0.1802000987998515</v>
+        <v>0.2465688301813334</v>
       </c>
       <c r="R25">
-        <v>0.1802000987998515</v>
+        <v>2.219119471632</v>
       </c>
       <c r="S25">
-        <v>0.0002044572098595121</v>
+        <v>0.0002583446320716518</v>
       </c>
       <c r="T25">
-        <v>0.0002044572098595121</v>
+        <v>0.0002583446320716517</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.483139856030033</v>
+        <v>0.5107313333333333</v>
       </c>
       <c r="H26">
-        <v>0.483139856030033</v>
+        <v>1.532194</v>
       </c>
       <c r="I26">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="J26">
-        <v>0.02372363676956408</v>
+        <v>0.02475696609091873</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N26">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O26">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P26">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q26">
-        <v>2.734465193244552</v>
+        <v>3.617622224649556</v>
       </c>
       <c r="R26">
-        <v>2.734465193244552</v>
+        <v>32.558600021846</v>
       </c>
       <c r="S26">
-        <v>0.003102557254919736</v>
+        <v>0.003790395087302782</v>
       </c>
       <c r="T26">
-        <v>0.003102557254919736</v>
+        <v>0.003790395087302782</v>
       </c>
     </row>
   </sheetData>
